--- a/Code/Results/Cases/Case_2_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7381000452093076</v>
+        <v>0.2452590214026884</v>
       </c>
       <c r="C2">
-        <v>0.1065391632428714</v>
+        <v>0.03524592337566901</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3453923652224162</v>
+        <v>0.1649013415002969</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0008028582965683357</v>
+        <v>0.002425384863620384</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2183250991945442</v>
+        <v>0.4984365121658598</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7842981166986931</v>
+        <v>0.246392164129702</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5744772818293313</v>
+        <v>0.2174129915600531</v>
       </c>
       <c r="N2">
-        <v>0.6991574578548079</v>
+        <v>1.38848349076085</v>
       </c>
       <c r="O2">
-        <v>1.076158576876949</v>
+        <v>2.209038766487879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6426100637372372</v>
+        <v>0.2161548119744907</v>
       </c>
       <c r="C3">
-        <v>0.09394323393414084</v>
+        <v>0.03128430103414814</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3004643427353457</v>
+        <v>0.1534863313712123</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0008060103489520473</v>
+        <v>0.002427427657781619</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2234571988820022</v>
+        <v>0.5036256256496543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6839168057658469</v>
+        <v>0.2155334280826935</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4976351852886154</v>
+        <v>0.195872510153059</v>
       </c>
       <c r="N3">
-        <v>0.7340298471408619</v>
+        <v>1.403396919388125</v>
       </c>
       <c r="O3">
-        <v>1.070827005093662</v>
+        <v>2.225653602028444</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5840092120078282</v>
+        <v>0.1982719915989719</v>
       </c>
       <c r="C4">
-        <v>0.08621357638206462</v>
+        <v>0.02883719686003872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2733382116111471</v>
+        <v>0.1465879726479926</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008080084195396921</v>
+        <v>0.002428748654920306</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2271286073475522</v>
+        <v>0.5070795527495093</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6223084671476755</v>
+        <v>0.1965487396685575</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4508221125536878</v>
+        <v>0.1827167963917304</v>
       </c>
       <c r="N4">
-        <v>0.7564189987888437</v>
+        <v>1.413043558532442</v>
       </c>
       <c r="O4">
-        <v>1.070135817386813</v>
+        <v>2.237138901456646</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5601295595836859</v>
+        <v>0.190981833954595</v>
       </c>
       <c r="C5">
-        <v>0.08306338743402364</v>
+        <v>0.02783632598183772</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2623874197758767</v>
+        <v>0.1438044538709846</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008088386933030991</v>
+        <v>0.002429303796654356</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2287506233862082</v>
+        <v>0.5085543681700706</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5972012065779495</v>
+        <v>0.1888033548759722</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4318249602686919</v>
+        <v>0.1773734123769017</v>
       </c>
       <c r="N5">
-        <v>0.7657826405813726</v>
+        <v>1.417097800820738</v>
       </c>
       <c r="O5">
-        <v>1.070474526325313</v>
+        <v>2.242141902143331</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5561642058835332</v>
+        <v>0.189771154754709</v>
       </c>
       <c r="C6">
-        <v>0.08254024492933354</v>
+        <v>0.02766991215584369</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2605749426344843</v>
+        <v>0.1433439158568603</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008089775365636154</v>
+        <v>0.002429396994860515</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2290274209420193</v>
+        <v>0.5088033248746555</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5930318592275228</v>
+        <v>0.1875167099149451</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4286749343051497</v>
+        <v>0.1764872156420694</v>
       </c>
       <c r="N6">
-        <v>0.7673517875634825</v>
+        <v>1.417778443500927</v>
       </c>
       <c r="O6">
-        <v>1.070567415687265</v>
+        <v>2.242992129234381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5836871688750307</v>
+        <v>0.1981736845949627</v>
       </c>
       <c r="C7">
-        <v>0.08617109476085716</v>
+        <v>0.02882371353041435</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2731901228193649</v>
+        <v>0.1465503215371342</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008080195514946697</v>
+        <v>0.002428756073390672</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.227149979075854</v>
+        <v>0.5070991701166747</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6219698775432363</v>
+        <v>0.1964443184781004</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4505656049418292</v>
+        <v>0.1826446620536828</v>
       </c>
       <c r="N7">
-        <v>0.7565443164369974</v>
+        <v>1.413097736782763</v>
       </c>
       <c r="O7">
-        <v>1.070137910787651</v>
+        <v>2.237205067491146</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7051644476401293</v>
+        <v>0.2352267816405345</v>
       </c>
       <c r="C8">
-        <v>0.1021943410121366</v>
+        <v>0.03388301286470607</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3297981101983041</v>
+        <v>0.1609424059019204</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0008039322826442514</v>
+        <v>0.002426075402202697</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2199836204442747</v>
+        <v>0.5001701230989859</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7496762490232811</v>
+        <v>0.2357600496829662</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5478975905168966</v>
+        <v>0.2099712607768112</v>
       </c>
       <c r="N8">
-        <v>0.7109749837806891</v>
+        <v>1.393524004458435</v>
       </c>
       <c r="O8">
-        <v>1.073766386386055</v>
+        <v>2.214501030320775</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9439677331863834</v>
+        <v>0.3077712575458804</v>
       </c>
       <c r="C9">
-        <v>0.1337175257148147</v>
+        <v>0.04368723574260969</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4450496083762303</v>
+        <v>0.1900511884586251</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007964013555069832</v>
+        <v>0.002421345706616274</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2102924239533657</v>
+        <v>0.4887082553233668</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.000709340927699</v>
+        <v>0.312547795218336</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7423211729913888</v>
+        <v>0.2641179795588755</v>
       </c>
       <c r="N9">
-        <v>0.6296451324099195</v>
+        <v>1.359024791015553</v>
       </c>
       <c r="O9">
-        <v>1.102750995993915</v>
+        <v>2.180172234568047</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.120302060706933</v>
+        <v>0.3609827820231999</v>
       </c>
       <c r="C10">
-        <v>0.1570425207713697</v>
+        <v>0.05081865061498547</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5332014181324993</v>
+        <v>0.2119924022077484</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007911439613252998</v>
+        <v>0.002418188971907411</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2061738767680517</v>
+        <v>0.4815849029922674</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.186110186624518</v>
+        <v>0.3687607201642322</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8882833733725164</v>
+        <v>0.3042475899942971</v>
       </c>
       <c r="N10">
-        <v>0.575190273883031</v>
+        <v>1.336044397771296</v>
       </c>
       <c r="O10">
-        <v>1.139406732038637</v>
+        <v>2.161177758619303</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.200840231752863</v>
+        <v>0.3851681545645818</v>
       </c>
       <c r="C11">
-        <v>0.1677144704924416</v>
+        <v>0.0540472942710295</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5742730976020027</v>
+        <v>0.222097864257961</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007888074778479747</v>
+        <v>0.002416821308223405</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.205032932194861</v>
+        <v>0.4786264481774012</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.270808272807983</v>
+        <v>0.3942867262827292</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9555913716043705</v>
+        <v>0.322580898090699</v>
       </c>
       <c r="N11">
-        <v>0.551662907449785</v>
+        <v>1.32610338280762</v>
       </c>
       <c r="O11">
-        <v>1.159899069446823</v>
+        <v>2.153891614035018</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.231395386610075</v>
+        <v>0.3943231567109251</v>
       </c>
       <c r="C12">
-        <v>0.1717667011811983</v>
+        <v>0.05526765322539973</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5899847732924428</v>
+        <v>0.2259426301113052</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007879302403807335</v>
+        <v>0.002416313187645935</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2047134841898703</v>
+        <v>0.4775467431072471</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.302945390259566</v>
+        <v>0.4039458668828217</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9812302776972501</v>
+        <v>0.3295345275117469</v>
       </c>
       <c r="N12">
-        <v>0.5429412889540295</v>
+        <v>1.322412729903359</v>
       </c>
       <c r="O12">
-        <v>1.16825103478368</v>
+        <v>2.151327539745836</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.224812069268182</v>
+        <v>0.3923516253242667</v>
       </c>
       <c r="C13">
-        <v>0.1708934551077448</v>
+        <v>0.05500492806031332</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5865936031608641</v>
+        <v>0.2251137856067658</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007881188404173511</v>
+        <v>0.002416422185974154</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.204777154236897</v>
+        <v>0.4777774705729421</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.296021044522377</v>
+        <v>0.401865916891694</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9757014354294782</v>
+        <v>0.3280364412696173</v>
       </c>
       <c r="N13">
-        <v>0.5448111528553348</v>
+        <v>1.323204295348486</v>
       </c>
       <c r="O13">
-        <v>1.16642524498053</v>
+        <v>2.151871081010938</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.203352814396936</v>
+        <v>0.3859214144665088</v>
       </c>
       <c r="C14">
-        <v>0.1680476164511902</v>
+        <v>0.05414773939031647</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5755624107691801</v>
+        <v>0.2224138127847723</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007887351582569366</v>
+        <v>0.002416779309048385</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2050043509901052</v>
+        <v>0.4785368062853301</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.273450860739985</v>
+        <v>0.3950815325742099</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9576975562634047</v>
+        <v>0.3231527530303353</v>
       </c>
       <c r="N14">
-        <v>0.5509415610442474</v>
+        <v>1.32579827138612</v>
       </c>
       <c r="O14">
-        <v>1.160574069828186</v>
+        <v>2.153676755967865</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.190216167482617</v>
+        <v>0.381982258042143</v>
       </c>
       <c r="C15">
-        <v>0.1663059578046102</v>
+        <v>0.0536223914865559</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5688267499181947</v>
+        <v>0.2207623568199253</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007891136404884592</v>
+        <v>0.002416999329844389</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2051584034146963</v>
+        <v>0.4790072097371798</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.25963465889609</v>
+        <v>0.3909249756337942</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.946689926090194</v>
+        <v>0.3201628109778341</v>
       </c>
       <c r="N15">
-        <v>0.5547213243945563</v>
+        <v>1.327396768019756</v>
       </c>
       <c r="O15">
-        <v>1.157068474514119</v>
+        <v>2.154808190157695</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.115046092318153</v>
+        <v>0.3594017511158825</v>
       </c>
       <c r="C16">
-        <v>0.1563464994864461</v>
+        <v>0.05060733695405872</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5305384241464708</v>
+        <v>0.2113345024415665</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007912977325924388</v>
+        <v>0.002418279723463415</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2062637913364931</v>
+        <v>0.4817839234414834</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.180583205050254</v>
+        <v>0.3670915803625689</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8839046136126854</v>
+        <v>0.3030510348344961</v>
       </c>
       <c r="N16">
-        <v>0.576753617480815</v>
+        <v>1.336704390492113</v>
       </c>
       <c r="O16">
-        <v>1.138147936844845</v>
+        <v>2.161681203408492</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.069021714789812</v>
+        <v>0.3455436681520609</v>
       </c>
       <c r="C17">
-        <v>0.1502538887853859</v>
+        <v>0.04875371196294509</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5073115871494522</v>
+        <v>0.2055827773338663</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.000792651453197797</v>
+        <v>0.002419082677887509</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.207134560989843</v>
+        <v>0.4835596063058496</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.13218790841114</v>
+        <v>0.3524585771471607</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8456345145202206</v>
+        <v>0.2925735059164936</v>
       </c>
       <c r="N17">
-        <v>0.5905944802330598</v>
+        <v>1.342545705659372</v>
       </c>
       <c r="O17">
-        <v>1.127548231492909</v>
+        <v>2.166244681692973</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.042579408550267</v>
+        <v>0.3375709346721578</v>
       </c>
       <c r="C18">
-        <v>0.1467552084565256</v>
+        <v>0.04768610152089536</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4940422886300624</v>
+        <v>0.2022862259807354</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007934352914786167</v>
+        <v>0.002419550952074267</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2077038987793998</v>
+        <v>0.4846074718956537</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.104385151716485</v>
+        <v>0.3440378019716661</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8237068383462116</v>
+        <v>0.2865544660622987</v>
       </c>
       <c r="N18">
-        <v>0.5986719530332927</v>
+        <v>1.345953747767194</v>
       </c>
       <c r="O18">
-        <v>1.121808134173619</v>
+        <v>2.168996954278029</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.033631286121675</v>
+        <v>0.3348711871402372</v>
       </c>
       <c r="C19">
-        <v>0.1455715185070403</v>
+        <v>0.04732437819534141</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4895644602589755</v>
+        <v>0.2011720726049262</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007937015926434231</v>
+        <v>0.002419710608629222</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2079082173871036</v>
+        <v>0.4849668179756002</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.094976914415469</v>
+        <v>0.3411859546368987</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8162963902128766</v>
+        <v>0.284517787291243</v>
       </c>
       <c r="N19">
-        <v>0.6014266113634452</v>
+        <v>1.347115941814575</v>
       </c>
       <c r="O19">
-        <v>1.119924614461851</v>
+        <v>2.169950713793853</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.073917939826288</v>
+        <v>0.347019088037996</v>
       </c>
       <c r="C20">
-        <v>0.1509018598688101</v>
+        <v>0.04895118427185707</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.509774658433308</v>
+        <v>0.2061938472868832</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007925068104330678</v>
+        <v>0.002418996536315888</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2070347261628491</v>
+        <v>0.4833678347248309</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.137336175503634</v>
+        <v>0.3540167293880927</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8496995692744918</v>
+        <v>0.293688095510177</v>
       </c>
       <c r="N20">
-        <v>0.5891089702632115</v>
+        <v>1.341918891406564</v>
       </c>
       <c r="O20">
-        <v>1.128639382051901</v>
+        <v>2.165745696066224</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.209654279043662</v>
+        <v>0.3878102213622299</v>
       </c>
       <c r="C21">
-        <v>0.1688831915598001</v>
+        <v>0.05439957803729101</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5787980719293415</v>
+        <v>0.223206369089894</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.000788553929350863</v>
+        <v>0.002416674148194182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2049345015419775</v>
+        <v>0.4783126687974111</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.28007843714758</v>
+        <v>0.3970744644224453</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9629814705312896</v>
+        <v>0.3245869068630114</v>
       </c>
       <c r="N21">
-        <v>0.5491357453214754</v>
+        <v>1.325034354656875</v>
       </c>
       <c r="O21">
-        <v>1.162276278470529</v>
+        <v>2.153141090400908</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.298704171699541</v>
+        <v>0.4144491158656933</v>
       </c>
       <c r="C22">
-        <v>0.1807002644655427</v>
+        <v>0.05794723959131431</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.624844001833381</v>
+        <v>0.2344303055570123</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007860142313318976</v>
+        <v>0.002415213341679049</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2042219437681965</v>
+        <v>0.4752454812466276</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.373746956952971</v>
+        <v>0.4251741475201243</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.037907366774562</v>
+        <v>0.3448463526211256</v>
       </c>
       <c r="N22">
-        <v>0.524109382266559</v>
+        <v>1.314429481399657</v>
       </c>
       <c r="O22">
-        <v>1.187732495968447</v>
+        <v>2.146040154974031</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.25114186922869</v>
+        <v>0.4002334680519652</v>
       </c>
       <c r="C23">
-        <v>0.17438653237663</v>
+        <v>0.05605500272224617</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6001761424217875</v>
+        <v>0.2284301900691048</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007873658492712918</v>
+        <v>0.002415987800053049</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2045393274214646</v>
+        <v>0.4768608273516257</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.323715398244531</v>
+        <v>0.4101807232441672</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9978295455597674</v>
+        <v>0.3340275428816639</v>
       </c>
       <c r="N23">
-        <v>0.537362873907437</v>
+        <v>1.320050128757551</v>
       </c>
       <c r="O23">
-        <v>1.173813289912346</v>
+        <v>2.149725948680612</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.071704302086374</v>
+        <v>0.346352067918815</v>
       </c>
       <c r="C24">
-        <v>0.1506088997122248</v>
+        <v>0.04886191307105037</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.508660843318026</v>
+        <v>0.2059175508294118</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007925721860454383</v>
+        <v>0.00241903546020985</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2070796479814305</v>
+        <v>0.4834544505506244</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.135008581500045</v>
+        <v>0.3533123138526832</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8478615280511619</v>
+        <v>0.2931841751294186</v>
       </c>
       <c r="N24">
-        <v>0.589780195651997</v>
+        <v>1.342202119031207</v>
       </c>
       <c r="O24">
-        <v>1.128144974048851</v>
+        <v>2.16597088669117</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8792499400724978</v>
+        <v>0.2881601709947859</v>
       </c>
       <c r="C25">
-        <v>0.1251686256259177</v>
+        <v>0.04104750517937816</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.413328710964592</v>
+        <v>0.1820801033752772</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007983887945918879</v>
+        <v>0.002422569113581719</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2124130722014357</v>
+        <v>0.4915812262903465</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9326743756060978</v>
+        <v>0.2918093285035468</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.689249516226397</v>
+        <v>0.2494092467197291</v>
       </c>
       <c r="N25">
-        <v>0.6507472204779514</v>
+        <v>1.36794207457628</v>
       </c>
       <c r="O25">
-        <v>1.092366864693972</v>
+        <v>2.188366481341049</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_248/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_248/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2452590214026884</v>
+        <v>0.7381000452094213</v>
       </c>
       <c r="C2">
-        <v>0.03524592337566901</v>
+        <v>0.1065391632428714</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1649013415002969</v>
+        <v>0.3453923652224233</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002425384863620384</v>
+        <v>0.0008028582964679644</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4984365121658598</v>
+        <v>0.2183250991945442</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.246392164129702</v>
+        <v>0.7842981166988352</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2174129915600531</v>
+        <v>0.5744772818293455</v>
       </c>
       <c r="N2">
-        <v>1.38848349076085</v>
+        <v>0.6991574578548025</v>
       </c>
       <c r="O2">
-        <v>2.209038766487879</v>
+        <v>1.076158576876949</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2161548119744907</v>
+        <v>0.6426100637373793</v>
       </c>
       <c r="C3">
-        <v>0.03128430103414814</v>
+        <v>0.0939432339338282</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1534863313712123</v>
+        <v>0.3004643427353244</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002427427657781619</v>
+        <v>0.0008060103489676944</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5036256256496543</v>
+        <v>0.2234571988820093</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2155334280826935</v>
+        <v>0.683916805765918</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.195872510153059</v>
+        <v>0.4976351852886012</v>
       </c>
       <c r="N3">
-        <v>1.403396919388125</v>
+        <v>0.7340298471409028</v>
       </c>
       <c r="O3">
-        <v>2.225653602028444</v>
+        <v>1.070827005093705</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1982719915989719</v>
+        <v>0.5840092120078282</v>
       </c>
       <c r="C4">
-        <v>0.02883719686003872</v>
+        <v>0.08621357638259042</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1465879726479926</v>
+        <v>0.2733382116111258</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002428748654920306</v>
+        <v>0.000808008419466451</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5070795527495093</v>
+        <v>0.2271286073475416</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1965487396685575</v>
+        <v>0.6223084671478034</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1827167963917304</v>
+        <v>0.4508221125536878</v>
       </c>
       <c r="N4">
-        <v>1.413043558532442</v>
+        <v>0.7564189987888312</v>
       </c>
       <c r="O4">
-        <v>2.237138901456646</v>
+        <v>1.07013581738677</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.190981833954595</v>
+        <v>0.5601295595836859</v>
       </c>
       <c r="C5">
-        <v>0.02783632598183772</v>
+        <v>0.08306338743425101</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1438044538709846</v>
+        <v>0.2623874197758767</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002429303796654356</v>
+        <v>0.0008088386932879748</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5085543681700706</v>
+        <v>0.22875062338621</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1888033548759722</v>
+        <v>0.5972012065779353</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1773734123769017</v>
+        <v>0.4318249602687061</v>
       </c>
       <c r="N5">
-        <v>1.417097800820738</v>
+        <v>0.7657826405814276</v>
       </c>
       <c r="O5">
-        <v>2.242141902143331</v>
+        <v>1.070474526325313</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.189771154754709</v>
+        <v>0.5561642058835048</v>
       </c>
       <c r="C6">
-        <v>0.02766991215584369</v>
+        <v>0.08254024492933354</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1433439158568603</v>
+        <v>0.2605749426344701</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002429396994860515</v>
+        <v>0.0008089775365778747</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5088033248746555</v>
+        <v>0.229027420942014</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1875167099149451</v>
+        <v>0.593031859227537</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1764872156420694</v>
+        <v>0.4286749343051497</v>
       </c>
       <c r="N6">
-        <v>1.417778443500927</v>
+        <v>0.7673517875634666</v>
       </c>
       <c r="O6">
-        <v>2.242992129234381</v>
+        <v>1.070567415687236</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1981736845949627</v>
+        <v>0.5836871688748886</v>
       </c>
       <c r="C7">
-        <v>0.02882371353041435</v>
+        <v>0.08617109476085716</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1465503215371342</v>
+        <v>0.273190122819372</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002428756073390672</v>
+        <v>0.0008080195514931822</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5070991701166747</v>
+        <v>0.2271499790758611</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1964443184781004</v>
+        <v>0.6219698775433358</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1826446620536828</v>
+        <v>0.4505656049418221</v>
       </c>
       <c r="N7">
-        <v>1.413097736782763</v>
+        <v>0.7565443164369707</v>
       </c>
       <c r="O7">
-        <v>2.237205067491146</v>
+        <v>1.070137910787636</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2352267816405345</v>
+        <v>0.705164447640243</v>
       </c>
       <c r="C8">
-        <v>0.03388301286470607</v>
+        <v>0.1021943410121366</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1609424059019204</v>
+        <v>0.3297981101983041</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002426075402202697</v>
+        <v>0.0008039322827021495</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5001701230989859</v>
+        <v>0.2199836204442889</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2357600496829662</v>
+        <v>0.7496762490231816</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2099712607768112</v>
+        <v>0.5478975905168966</v>
       </c>
       <c r="N8">
-        <v>1.393524004458435</v>
+        <v>0.7109749837806749</v>
       </c>
       <c r="O8">
-        <v>2.214501030320775</v>
+        <v>1.073766386386069</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3077712575458804</v>
+        <v>0.9439677331864118</v>
       </c>
       <c r="C9">
-        <v>0.04368723574260969</v>
+        <v>0.1337175257148857</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1900511884586251</v>
+        <v>0.4450496083762161</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002421345706616274</v>
+        <v>0.0007964013555460074</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4887082553233668</v>
+        <v>0.2102924239533657</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.312547795218336</v>
+        <v>1.000709340927756</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2641179795588755</v>
+        <v>0.7423211729913746</v>
       </c>
       <c r="N9">
-        <v>1.359024791015553</v>
+        <v>0.6296451324099692</v>
       </c>
       <c r="O9">
-        <v>2.180172234568047</v>
+        <v>1.102750995993972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3609827820231999</v>
+        <v>1.120302060706962</v>
       </c>
       <c r="C10">
-        <v>0.05081865061498547</v>
+        <v>0.1570425207711565</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2119924022077484</v>
+        <v>0.5332014181324993</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002418188971907411</v>
+        <v>0.0007911439613256967</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4815849029922674</v>
+        <v>0.2061738767680552</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3687607201642322</v>
+        <v>1.18611018662466</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3042475899942971</v>
+        <v>0.8882833733725235</v>
       </c>
       <c r="N10">
-        <v>1.336044397771296</v>
+        <v>0.5751902738830346</v>
       </c>
       <c r="O10">
-        <v>2.161177758619303</v>
+        <v>1.139406732038637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3851681545645818</v>
+        <v>1.200840231752863</v>
       </c>
       <c r="C11">
-        <v>0.0540472942710295</v>
+        <v>0.1677144704926121</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.222097864257961</v>
+        <v>0.5742730976019885</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002416821308223405</v>
+        <v>0.0007888074778481412</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4786264481774012</v>
+        <v>0.2050329321948574</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3942867262827292</v>
+        <v>1.270808272807983</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.322580898090699</v>
+        <v>0.9555913716043634</v>
       </c>
       <c r="N11">
-        <v>1.32610338280762</v>
+        <v>0.5516629074498312</v>
       </c>
       <c r="O11">
-        <v>2.153891614035018</v>
+        <v>1.159899069446794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3943231567109251</v>
+        <v>1.231395386610103</v>
       </c>
       <c r="C12">
-        <v>0.05526765322539973</v>
+        <v>0.1717667011812551</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2259426301113052</v>
+        <v>0.5899847732924428</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002416313187645935</v>
+        <v>0.0007879302403022148</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4775467431072471</v>
+        <v>0.2047134841898739</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4039458668828217</v>
+        <v>1.30294539025968</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3295345275117469</v>
+        <v>0.9812302776972501</v>
       </c>
       <c r="N12">
-        <v>1.322412729903359</v>
+        <v>0.542941288954033</v>
       </c>
       <c r="O12">
-        <v>2.151327539745836</v>
+        <v>1.168251034783708</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3923516253242667</v>
+        <v>1.224812069268154</v>
       </c>
       <c r="C13">
-        <v>0.05500492806031332</v>
+        <v>0.1708934551079011</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2251137856067658</v>
+        <v>0.5865936031608499</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002416422185974154</v>
+        <v>0.0007881188403006735</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4777774705729421</v>
+        <v>0.2047771542368793</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.401865916891694</v>
+        <v>1.296021044522348</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3280364412696173</v>
+        <v>0.9757014354294924</v>
       </c>
       <c r="N13">
-        <v>1.323204295348486</v>
+        <v>0.5448111528553348</v>
       </c>
       <c r="O13">
-        <v>2.151871081010938</v>
+        <v>1.16642524498053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3859214144665088</v>
+        <v>1.203352814397107</v>
       </c>
       <c r="C14">
-        <v>0.05414773939031647</v>
+        <v>0.1680476164516023</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2224138127847723</v>
+        <v>0.5755624107691659</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002416779309048385</v>
+        <v>0.0007887351582765434</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4785368062853301</v>
+        <v>0.2050043509901052</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3950815325742099</v>
+        <v>1.273450860739928</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3231527530303353</v>
+        <v>0.9576975562634118</v>
       </c>
       <c r="N14">
-        <v>1.32579827138612</v>
+        <v>0.5509415610442474</v>
       </c>
       <c r="O14">
-        <v>2.153676755967865</v>
+        <v>1.160574069828129</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.381982258042143</v>
+        <v>1.190216167482475</v>
       </c>
       <c r="C15">
-        <v>0.0536223914865559</v>
+        <v>0.1663059578048518</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2207623568199253</v>
+        <v>0.5688267499182018</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002416999329844389</v>
+        <v>0.0007891136404871567</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4790072097371798</v>
+        <v>0.2051584034146998</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3909249756337942</v>
+        <v>1.259634658896118</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3201628109778341</v>
+        <v>0.9466899260902153</v>
       </c>
       <c r="N15">
-        <v>1.327396768019756</v>
+        <v>0.5547213243945421</v>
       </c>
       <c r="O15">
-        <v>2.154808190157695</v>
+        <v>1.157068474514062</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3594017511158825</v>
+        <v>1.115046092318067</v>
       </c>
       <c r="C16">
-        <v>0.05060733695405872</v>
+        <v>0.1563464994859913</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2113345024415665</v>
+        <v>0.5305384241464708</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002418279723463415</v>
+        <v>0.0007912977326511696</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4817839234414834</v>
+        <v>0.2062637913364931</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3670915803625689</v>
+        <v>1.180583205050283</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3030510348344961</v>
+        <v>0.8839046136126782</v>
       </c>
       <c r="N16">
-        <v>1.336704390492113</v>
+        <v>0.5767536174807617</v>
       </c>
       <c r="O16">
-        <v>2.161681203408492</v>
+        <v>1.138147936844973</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3455436681520609</v>
+        <v>1.069021714789699</v>
       </c>
       <c r="C17">
-        <v>0.04875371196294509</v>
+        <v>0.1502538887852154</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2055827773338663</v>
+        <v>0.5073115871494451</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002419082677887509</v>
+        <v>0.0007926514531968952</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4835596063058496</v>
+        <v>0.2071345609898607</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3524585771471607</v>
+        <v>1.132187908411169</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2925735059164936</v>
+        <v>0.8456345145202064</v>
       </c>
       <c r="N17">
-        <v>1.342545705659372</v>
+        <v>0.5905944802331149</v>
       </c>
       <c r="O17">
-        <v>2.166244681692973</v>
+        <v>1.127548231492838</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3375709346721578</v>
+        <v>1.042579408550154</v>
       </c>
       <c r="C18">
-        <v>0.04768610152089536</v>
+        <v>0.146755208456085</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2022862259807354</v>
+        <v>0.4940422886300695</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002419550952074267</v>
+        <v>0.0007934352915177079</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4846074718956537</v>
+        <v>0.2077038987794175</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3440378019716661</v>
+        <v>1.104385151716485</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2865544660622987</v>
+        <v>0.8237068383462116</v>
       </c>
       <c r="N18">
-        <v>1.345953747767194</v>
+        <v>0.5986719530332998</v>
       </c>
       <c r="O18">
-        <v>2.168996954278029</v>
+        <v>1.121808134173648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3348711871402372</v>
+        <v>1.03363128612159</v>
       </c>
       <c r="C19">
-        <v>0.04732437819534141</v>
+        <v>0.1455715185070403</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2011720726049262</v>
+        <v>0.4895644602589755</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002419710608629222</v>
+        <v>0.0007937015925846835</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4849668179756002</v>
+        <v>0.2079082173871036</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3411859546368987</v>
+        <v>1.094976914415582</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.284517787291243</v>
+        <v>0.8162963902128766</v>
       </c>
       <c r="N19">
-        <v>1.347115941814575</v>
+        <v>0.6014266113634861</v>
       </c>
       <c r="O19">
-        <v>2.169950713793853</v>
+        <v>1.119924614461823</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.347019088037996</v>
+        <v>1.073917939826288</v>
       </c>
       <c r="C20">
-        <v>0.04895118427185707</v>
+        <v>0.1509018598688812</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2061938472868832</v>
+        <v>0.5097746584333152</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002418996536315888</v>
+        <v>0.0007925068104904787</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4833678347248309</v>
+        <v>0.2070347261628314</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3540167293880927</v>
+        <v>1.137336175503691</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.293688095510177</v>
+        <v>0.8496995692744989</v>
       </c>
       <c r="N20">
-        <v>1.341918891406564</v>
+        <v>0.5891089702632044</v>
       </c>
       <c r="O20">
-        <v>2.165745696066224</v>
+        <v>1.128639382051887</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3878102213622299</v>
+        <v>1.209654279043775</v>
       </c>
       <c r="C21">
-        <v>0.05439957803729101</v>
+        <v>0.1688831915597717</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.223206369089894</v>
+        <v>0.5787980719293202</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002416674148194182</v>
+        <v>0.0007885539294278887</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4783126687974111</v>
+        <v>0.2049345015419775</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3970744644224453</v>
+        <v>1.280078437147637</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3245869068630114</v>
+        <v>0.9629814705312967</v>
       </c>
       <c r="N21">
-        <v>1.325034354656875</v>
+        <v>0.5491357453214647</v>
       </c>
       <c r="O21">
-        <v>2.153141090400908</v>
+        <v>1.162276278470415</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4144491158656933</v>
+        <v>1.298704171699512</v>
       </c>
       <c r="C22">
-        <v>0.05794723959131431</v>
+        <v>0.1807002644660543</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2344303055570123</v>
+        <v>0.6248440018333952</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002415213341679049</v>
+        <v>0.0007860142312742447</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4752454812466276</v>
+        <v>0.2042219437682</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4251741475201243</v>
+        <v>1.373746956952971</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3448463526211256</v>
+        <v>1.037907366774569</v>
       </c>
       <c r="N22">
-        <v>1.314429481399657</v>
+        <v>0.5241093822665626</v>
       </c>
       <c r="O22">
-        <v>2.146040154974031</v>
+        <v>1.187732495968447</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4002334680519652</v>
+        <v>1.251141869228547</v>
       </c>
       <c r="C23">
-        <v>0.05605500272224617</v>
+        <v>0.1743865323766158</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2284301900691048</v>
+        <v>0.6001761424217875</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002415987800053049</v>
+        <v>0.0007873658492892626</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4768608273516257</v>
+        <v>0.2045393274214469</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4101807232441672</v>
+        <v>1.323715398244531</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3340275428816639</v>
+        <v>0.9978295455597745</v>
       </c>
       <c r="N23">
-        <v>1.320050128757551</v>
+        <v>0.5373628739074086</v>
       </c>
       <c r="O23">
-        <v>2.149725948680612</v>
+        <v>1.173813289912317</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.346352067918815</v>
+        <v>1.071704302086374</v>
       </c>
       <c r="C24">
-        <v>0.04886191307105037</v>
+        <v>0.150608899712438</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2059175508294118</v>
+        <v>0.5086608433180331</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.00241903546020985</v>
+        <v>0.0007925721861028369</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4834544505506244</v>
+        <v>0.2070796479814234</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3533123138526832</v>
+        <v>1.135008581500102</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2931841751294186</v>
+        <v>0.847861528051169</v>
       </c>
       <c r="N24">
-        <v>1.342202119031207</v>
+        <v>0.5897801956520503</v>
       </c>
       <c r="O24">
-        <v>2.16597088669117</v>
+        <v>1.128144974048794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2881601709947859</v>
+        <v>0.8792499400724978</v>
       </c>
       <c r="C25">
-        <v>0.04104750517937816</v>
+        <v>0.1251686256259177</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1820801033752772</v>
+        <v>0.4133287109645849</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002422569113581719</v>
+        <v>0.0007983887946501294</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4915812262903465</v>
+        <v>0.2124130722014179</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2918093285035468</v>
+        <v>0.9326743756058988</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2494092467197291</v>
+        <v>0.689249516226397</v>
       </c>
       <c r="N25">
-        <v>1.36794207457628</v>
+        <v>0.6507472204779461</v>
       </c>
       <c r="O25">
-        <v>2.188366481341049</v>
+        <v>1.092366864693915</v>
       </c>
     </row>
   </sheetData>
